--- a/biology/Botanique/Liste_des_espèces_du_genre_Mimosa/Liste_des_espèces_du_genre_Mimosa.xlsx
+++ b/biology/Botanique/Liste_des_espèces_du_genre_Mimosa/Liste_des_espèces_du_genre_Mimosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Mimosa</t>
+          <t>Liste_des_espèces_du_genre_Mimosa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cet article présente la liste des espèces du genre Mimosa. Le genre Mimosa comporte environ 400 espèces.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Mimosa</t>
+          <t>Liste_des_espèces_du_genre_Mimosa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
-          <t>Selon BioLib                    (12 mars 2020)[1] :
+          <t>Selon BioLib                    (12 mars 2020) :
 Mimosa aculeaticarpa Ortega
 Mimosa albida Humb. &amp; Bonpl. ex Willd.
 Mimosa arenosa (Willd.) Poir.
@@ -545,7 +559,7 @@
 Mimosa strigillosa Torr. &amp; A.Gray
 Mimosa texana (Gray) Small
 Mimosa turneri Barneby
-Selon Catalogue of Life                                   (12 mars 2020)[2] :
+Selon Catalogue of Life                                   (12 mars 2020) :
 Mimosa acantholoba (Willd.) Poir.
 Mimosa acapulcensis Robinson
 Mimosa acerba Benth.
@@ -1103,7 +1117,7 @@
 Mimosa zacapana Standl. &amp; Steyerm.
 Mimosa zimapanensis Britton &amp; Rose
 Mimosa zygophylla A.Gray
-Selon GRIN            (12 mars 2020)[3] :
+Selon GRIN            (12 mars 2020) :
 Mimosa aculeaticarpa Ortega
 Mimosa acutistipula (Mart.) Benth.
 Mimosa adenocarpa Benth.
@@ -1233,7 +1247,7 @@
 Mimosa verrucosa Benth.
 Mimosa vestita Benth.
 Mimosa xanthocentra Mart.
-Selon ITIS      (12 mars 2020)[4] :
+Selon ITIS      (12 mars 2020) :
 Mimosa aculeaticarpa Ortega
 Mimosa arenosa (Willd.) Poir.
 Mimosa asperata L.
@@ -1260,7 +1274,7 @@
 Mimosa strigillosa Torr. &amp; A. Gray
 Mimosa texana (A. Gray) Small
 Mimosa turneri Barneby
-Selon The Plant List            (12 mars 2020)[5] :
+Selon The Plant List            (12 mars 2020) :
 Mimosa acantholoba (Willd.) Poir.
 Mimosa acapulcensis Robinson
 Mimosa accedens Barneby
@@ -1754,7 +1768,8 @@
 Mimosa pilulifera Benth.
 Mimosa pinetorum Standl.
 Mimosa piptoptera Barneby
-Mimosa piresii Bar</t>
+Mimosa piresii Barneby
+Mimosa pis</t>
         </is>
       </c>
     </row>
